--- a/data/Eksklusionslister/ATP_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/ATP_eksklusionsliste_isin.xlsx
@@ -1101,17 +1101,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Carnival Corp', 'Carnival Corp.', nan, 'USA', 'CARNIVAL CORP', 'Carnival Corp 15.01.2030']</t>
+          <t>['Carnival Corp', nan, 'Carnival Corp.', 'USA', 'CARNIVAL CORP', 'Carnival Corp 15.01.2030']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Carnival Corp', 'Carnival Corp.', '9,875 Carnival Corp 01-08-2027', '7.63% Carnival Corp 3/2026', 'CARNIVAL CORP 5.75% 01.03.2027', 'CARNIVAL CORP 4% 01.08.2028', '6 CCL 01-05-2029 (144A)', 'CARNIVAL CORP 6% 01.05.2029', 'CARNIVAL CORP 7% 15.08.2029', '5,75 CCL 15-01-2030 (REGS)', '5.75% Carnival Corp 2030', 'CCL 5 3/4 01/15/30', 'CARNIVAL CORP 5.75% 15.01.2030']</t>
+          <t>['Carnival Corp', 'Carnival Corp.', '9,875 Carnival Corp 01-08-2027', '7.63% Carnival Corp 3/2026', 'CARNIVAL CORP 5.75% 01.03.2027', 'CARNIVAL CORP 4% 01.08.2028', '6 CCL 01-05-2029 (144A)', 'CARNIVAL CORP 6% 01.05.2029', 'CARNIVAL CORP 7% 15.08.2029', '5,75 CCL 15-01-2030 (REGS)', '5.75% Carnival Corp 2030', 'CARNIVAL CORP 5.75% 15.01.2030', 'CCL 5 3/4 01/15/30']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Ikast-Brande', 'Rødovre', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Fanø', 'Esbjerg', 'Odense', 'Aarhus', 'Herning', 'Vejen', 'Kalundborg', 'Ballerup', 'Region Hovedstaden', 'Brøndby', 'Brønderslev', 'Hvidovre', 'Kerteminde', 'Kolding', 'Køge', 'Lolland', 'Region Midtjylland', 'Region Sjælland', 'Silkeborg', 'Skive', 'Sorø', 'Varde', 'Fredensborg', 'Struer', 'Region Nordjylland', 'Fredericia', 'Greve', 'Høje Taastrup', 'Lemvig', 'Næstved', 'Randers', 'Hillerød', 'Aabenraa']</t>
+          <t>['Ikast-Brande', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Esbjerg', 'Odense', 'Rødovre', 'Fanø', 'Aarhus', 'Herning', 'Vejen', 'Kalundborg', 'Ballerup', 'Region Hovedstaden', 'Brøndby', 'Brønderslev', 'Hvidovre', 'Kerteminde', 'Kolding', 'Køge', 'Lolland', 'Region Midtjylland', 'Region Sjælland', 'Silkeborg', 'Skive', 'Sorø', 'Varde', 'Fredensborg', 'Struer', 'Region Nordjylland', 'Fredericia', 'Greve', 'Høje Taastrup', 'Lemvig', 'Næstved', 'Randers', 'Hillerød', 'Aabenraa']</t>
         </is>
       </c>
     </row>
@@ -3701,17 +3701,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[nan, 'Target Corp', 'Target Corp.', 'Target\xa0Corp', 'USA']</t>
+          <t>['Target\xa0Corp', nan, 'Target Corp', 'Target Corp.', 'USA']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['TARGET CORP', 'Target Corp.', 'Target Corp', 'Target']</t>
+          <t>['Target', 'TARGET CORP', 'Target Corp', 'Target Corp.']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Assens', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Mariagerfjord', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Ballerup', 'Brøndby', 'Brønderslev', 'Fredensborg', 'Frederiksberg', 'Herning', 'Holstebro', 'Hvidovre', 'Ikast-Brande', 'Kerteminde', 'Kolding', 'Køge', 'Lolland', 'Morsø', 'Region Midtjylland', 'Region Nordjylland', 'Region Sjælland', 'Rudersdal', 'Silkeborg', 'Skive', 'Sorø', 'Struer', 'Varde', 'Rødovre', 'Viborg', 'Fanø', 'Esbjerg', 'Odense', 'Aalborg', 'Aarhus']</t>
+          <t>['Viborg', 'Assens', 'Mariagerfjord', 'Ballerup', 'Brøndby', 'Brønderslev', 'Fredensborg', 'Frederiksberg', 'Faaborg-Midtfyn', 'Hedensted', 'Herning', 'Holstebro', 'Hvidovre', 'Ikast-Brande', 'Kerteminde', 'Kolding', 'Køge', 'Lolland', 'Morsø', 'Region Midtjylland', 'Region Nordjylland', 'Region Sjælland', 'Rudersdal', 'Silkeborg', 'Skive', 'Sorø', 'Struer', 'Varde', 'Odense', 'Aalborg', 'Guldborgsund', 'Helsingør', 'Hørsholm', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Rødovre', 'Fanø', 'Esbjerg', 'Aarhus']</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['VALE SA', 'VALE SA-SP ADR', 'Vale SA']</t>
+          <t>['VALE SA', 'Vale SA', 'VALE SA-SP ADR']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['WALMART INC', 'Walmart Inc.', 'Wal-Mart Stores', 'Walmart\xa0Inc']</t>
+          <t>['WALMART INC', 'Walmart\xa0Inc', 'Wal-Mart Stores', 'Walmart Inc.']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Walmart Inc.', 'Wal-Mart Stores Inc', 'Walmart', 'WALMART INC', 'Wal-Mart Stores', 'Walmart Inc', 'Walmart, Inc.']</t>
+          <t>['Walmart', 'WALMART INC', 'Walmart Inc', 'Walmart Inc.', 'Wal-Mart Stores', 'Wal-Mart Stores Inc', 'Walmart, Inc.']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Egedal', 'Favrskov', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Mariagerfjord', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Næstved', 'Odense', 'Randers', 'Region\xa0Nordjylland', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Region Sjælland', 'Fanø', 'Skive', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Holstebro', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nyborg', 'Rebild', 'Rødovre', 'Skanderborg', 'Solrød', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Kolding', 'Lemvig', 'Varde', 'Esbjerg', 'Aalborg', 'Aarhus']</t>
+          <t>['Guldborgsund', 'Næstved', 'Odense', 'Randers', 'Region\xa0Nordjylland', 'Viborg', 'Mariagerfjord', 'Skive', 'Svendborg', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Varde', 'Aabenraa', 'Egedal', 'Favrskov', 'Region Sjælland', 'Fanø', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Holstebro', 'Horsens', 'Hvidovre', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Thisted', 'Tønder', 'Vallensbæk', 'Norddjurs', 'Aalborg', 'Faaborg-Midtfyn', 'Hedensted', 'Helsingør', 'Middelfart', 'Slagelse', 'Syddjurs', 'Esbjerg', 'Aarhus']</t>
         </is>
       </c>
     </row>
